--- a/ремонт квартир схема сайта.xlsx
+++ b/ремонт квартир схема сайта.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>8800-555-95-18</t>
   </si>
@@ -442,13 +442,16 @@
   </si>
   <si>
     <t>Устали искать мастеров? Начни ремонт без предоплат уже завтра!</t>
+  </si>
+  <si>
+    <t>/+ Картинки с нашими работами до и после</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +463,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -486,8 +497,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -784,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,19 +976,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
+    <row r="56" spans="1:9" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -1137,7 +1152,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ремонт квартир схема сайта.xlsx
+++ b/ремонт квартир схема сайта.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>8800-555-95-18</t>
   </si>
@@ -445,13 +445,16 @@
   </si>
   <si>
     <t>/+ Картинки с нашими работами до и после</t>
+  </si>
+  <si>
+    <t>Объединил с отзывами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +474,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -497,9 +507,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -796,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -979,6 +990,9 @@
     <row r="56" spans="1:9" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:3">
